--- a/biology/Zoologie/Crabe_flèche/Crabe_flèche.xlsx
+++ b/biology/Zoologie/Crabe_flèche/Crabe_flèche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crabe_fl%C3%A8che</t>
+          <t>Crabe_flèche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stenorhynchus seticornis
 Le crabe flèche (Stenorhynchus seticornis) est une espèce de crustacés décapodes de la famille des Inachidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crabe_fl%C3%A8che</t>
+          <t>Crabe_flèche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce crabe se rencontre sur les côtes tropicales de l'océan Indien, de l'océan Pacifique et de l'océan Atlantique occidental.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crabe_fl%C3%A8che</t>
+          <t>Crabe_flèche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les pinces
-Le crabe flèche peut facilement fouiller dans les trous entre les coraux grâce à ses longues pinces. Les poissons qui s'y réfugient ont tort d'aller dans les cachettes à cause de cela.
-Le museau
-Si un petit poisson passe à proximité du crabe flèche alors celui-ci l'empale. Le poisson se débat pour fuir, en vain. Il reste embroché et le crabe attend qu'il meure pour le manger.
-Autotomie
-Si un crabe flèche perd une patte, quand il mue, un morceau de patte réapparaît. Au bout de sept mues, la patte perdue est reconstituée.
+          <t>Les pinces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crabe flèche peut facilement fouiller dans les trous entre les coraux grâce à ses longues pinces. Les poissons qui s'y réfugient ont tort d'aller dans les cachettes à cause de cela.
 </t>
         </is>
       </c>
@@ -561,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crabe_fl%C3%A8che</t>
+          <t>Crabe_flèche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pour les humains</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si un être humain passe à proximité d'un crabe flèche alors celui-ci le pique. C'est son moyen de défense contre un agresseur qui passe tout près.
+          <t>Le museau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si un petit poisson passe à proximité du crabe flèche alors celui-ci l'empale. Le poisson se débat pour fuir, en vain. Il reste embroché et le crabe attend qu'il meure pour le manger.
 </t>
         </is>
       </c>
@@ -592,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crabe_fl%C3%A8che</t>
+          <t>Crabe_flèche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +628,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autotomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si un crabe flèche perd une patte, quand il mue, un morceau de patte réapparaît. Au bout de sept mues, la patte perdue est reconstituée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crabe_flèche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crabe_fl%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pour les humains</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si un être humain passe à proximité d'un crabe flèche alors celui-ci le pique. C'est son moyen de défense contre un agresseur qui passe tout près.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crabe_flèche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crabe_fl%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Herbst, 1788 : Versuch einer Naturgeschichte der Krabben und Krebse nebst einer Systematischen Beischreibung ihrer Verschieden Arten. vol. 1, Part. 7, p. 207–238.</t>
         </is>
